--- a/va_facility_data_2025-02-20/Downtown Eugene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Downtown%20Eugene%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Downtown Eugene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Downtown%20Eugene%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R45fde272c37a4c4e927c8bf7a663d760"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R9b84ede80a594c05922732b8cf0131c6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4708efc5a14f47399b64b78d64e22fce"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rfbb2d928776e4f9097cb119fe9eaa274"/>
   </x:sheets>
 </x:workbook>
 </file>
